--- a/public/download/book.xlsx
+++ b/public/download/book.xlsx
@@ -32,19 +32,34 @@
     <t xml:space="preserve">櫃名</t>
   </si>
   <si>
-    <t xml:space="preserve">試穿日期</t>
+    <t xml:space="preserve">預約日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行動電話</t>
+  </si>
+  <si>
+    <t xml:space="preserve">驗證碼</t>
   </si>
   <si>
     <t xml:space="preserve">試穿尺寸</t>
   </si>
   <si>
-    <t xml:space="preserve">尺碼</t>
+    <t xml:space="preserve">兌換尺寸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否完成</t>
   </si>
   <si>
     <t xml:space="preserve">未完成原因</t>
   </si>
   <si>
-    <t xml:space="preserve">是否完成</t>
+    <t xml:space="preserve">兌換貨號</t>
   </si>
   <si>
     <t xml:space="preserve">910512</t>
@@ -68,6 +83,21 @@
     <t xml:space="preserve">是</t>
   </si>
   <si>
+    <t xml:space="preserve">下胸圍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罩杯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀圍:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰圍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建議穿著內衣尺寸</t>
+  </si>
+  <si>
     <t xml:space="preserve">910897</t>
   </si>
   <si>
@@ -96,6 +126,105 @@
   </si>
   <si>
     <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">910870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey 台北西藏店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">測試</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同時重複1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0930597708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpQck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY SHOP 員林三民店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">張吳淑茹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iwnBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12321312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY SHOP 鳳山五甲二店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      套件衝突?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辛佳容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsbXh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123</t>
   </si>
 </sst>
 </file>
@@ -135,6 +264,18 @@
     <font>
       <color rgb="FFFFFF"/>
     </font>
+    <font>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFF"/>
+    </font>
   </fonts>
   <fills>
     <fill>
@@ -183,8 +324,56 @@
         <fgColor rgb="272727"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="272727"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="272727"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="272727"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="272727"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -276,6 +465,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,118 +766,306 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="E1" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="F1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="G1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
+      <c r="H1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="12">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2"/>
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H3"/>
       <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4"/>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/download/book.xlsx
+++ b/public/download/book.xlsx
@@ -71,30 +71,30 @@
     <t xml:space="preserve">2018-05-15</t>
   </si>
   <si>
+    <t xml:space="preserve">下胸圍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罩杯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀圍:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腰圍</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下胸圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">罩杯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臀圍:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰圍</t>
-  </si>
-  <si>
     <t xml:space="preserve">建議穿著內衣尺寸</t>
   </si>
   <si>
@@ -122,12 +122,12 @@
     <t xml:space="preserve">C70</t>
   </si>
   <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
     <t xml:space="preserve">沒有原因</t>
   </si>
   <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-05-22</t>
   </si>
   <si>
@@ -152,24 +152,24 @@
     <t xml:space="preserve">2018-05-18</t>
   </si>
   <si>
+    <t xml:space="preserve">13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同時重複1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0930597708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpQck</t>
+  </si>
+  <si>
     <t xml:space="preserve">D80</t>
   </si>
   <si>
     <t xml:space="preserve">測試</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同時重複1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0930597708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpQck</t>
-  </si>
-  <si>
     <t xml:space="preserve">12345</t>
   </si>
   <si>
@@ -179,24 +179,24 @@
     <t xml:space="preserve">EASY SHOP 員林三民店</t>
   </si>
   <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">張吳淑茹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iwnBD</t>
+  </si>
+  <si>
     <t xml:space="preserve">F80</t>
   </si>
   <si>
     <t xml:space="preserve">AAAAA</t>
   </si>
   <si>
-    <t xml:space="preserve">18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">張吳淑茹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iwnBD</t>
-  </si>
-  <si>
     <t xml:space="preserve">12321312</t>
   </si>
   <si>
@@ -209,22 +209,25 @@
     <t xml:space="preserve">2018-05-19</t>
   </si>
   <si>
+    <t xml:space="preserve">17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辛佳容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsbXh</t>
+  </si>
+  <si>
     <t xml:space="preserve">C75</t>
   </si>
   <si>
     <t xml:space="preserve">      套件衝突?</t>
   </si>
   <si>
-    <t xml:space="preserve">17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辛佳容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wsbXh</t>
-  </si>
-  <si>
     <t xml:space="preserve">123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid date</t>
   </si>
 </sst>
 </file>
@@ -851,22 +854,22 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3"/>
     </row>
     <row r="4">
@@ -879,22 +882,22 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
       <c r="L4"/>
     </row>
     <row r="5">
@@ -907,20 +910,20 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5"/>
     </row>
     <row r="6">
@@ -934,23 +937,23 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7">
@@ -967,22 +970,22 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1002,25 +1005,25 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -1043,28 +1046,64 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
